--- a/00_TermPremium/result/KW_model/US/19900101_20050801/3factor_(3, 6, 12, 24, 48, 84, 120)/estimate_parameters_20240318.xlsx
+++ b/00_TermPremium/result/KW_model/US/19900101_20050801/3factor_(3, 6, 12, 24, 48, 84, 120)/estimate_parameters_20240318.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="rho_0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="rho" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="phi" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Phi1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sigma" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="K" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="init_state_covariance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rho_0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rho" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Phi1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sigma" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="K" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="init_state_covariance" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001615786308122569</v>
+        <v>0.2248026783956066</v>
       </c>
     </row>
   </sheetData>
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05194205359525882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1902648382821628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -497,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0766067239290925</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03851061275718774</v>
+        <v>0.2520302475161006</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1830449751894588</v>
+        <v>0.02327535464036847</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2813391304605057</v>
+        <v>0.115369227032882</v>
       </c>
     </row>
   </sheetData>
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08019694295103626</v>
+        <v>0.05853733855467482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2829876721810916</v>
+        <v>0.2768876982778861</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2230683253265978</v>
+        <v>0.1578902846272545</v>
       </c>
     </row>
     <row r="3">
@@ -597,13 +597,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1128429245032532</v>
+        <v>0.1145515771906972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1743752227124699</v>
+        <v>0.01696190246899191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2906157116966142</v>
+        <v>0.2704538560613347</v>
       </c>
     </row>
     <row r="4">
@@ -611,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06270018047226682</v>
+        <v>0.02176532037025093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189611686993238</v>
+        <v>0.06698370311347877</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2060299587589118</v>
+        <v>0.08158838940176402</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07158312243969471</v>
+        <v>0.2890164602301305</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2743080610934112</v>
+        <v>0.2653871990991582</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2469694628613554</v>
+        <v>0.1979089894903115</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.142472795542031</v>
+        <v>0.281901465025854</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1991710381321176</v>
+        <v>0.02026269702122695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.280756245690808</v>
+        <v>0.260250833933846</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2773884069835387</v>
+        <v>0.0369114428138431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1768330023620533</v>
+        <v>0.06849239552089006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2529761005251975</v>
+        <v>0.007412721162431335</v>
       </c>
     </row>
   </sheetData>
@@ -872,13 +872,13 @@
         <v>0.0003447514576961229</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003213766586651032</v>
+        <v>0.000321376658665103</v>
       </c>
       <c r="F4" t="n">
         <v>0.0002722923473306625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002196316382701755</v>
+        <v>0.0002196316382701756</v>
       </c>
       <c r="H4" t="n">
         <v>0.0001853937629621375</v>
@@ -895,13 +895,13 @@
         <v>0.0003194245848331529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0003213766586651032</v>
+        <v>0.000321376658665103</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000305235111467154</v>
+        <v>0.0003052351114671539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002655944667673504</v>
+        <v>0.0002655944667673505</v>
       </c>
       <c r="G5" t="n">
         <v>0.0002201067592075392</v>
@@ -924,13 +924,13 @@
         <v>0.0002722923473306625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002655944667673504</v>
+        <v>0.0002655944667673505</v>
       </c>
       <c r="F6" t="n">
         <v>0.0002412517259246143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002091653268208688</v>
+        <v>0.0002091653268208687</v>
       </c>
       <c r="H6" t="n">
         <v>0.0001853292388132081</v>
@@ -947,16 +947,16 @@
         <v>0.0002122599267969328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002196316382701755</v>
+        <v>0.0002196316382701756</v>
       </c>
       <c r="E7" t="n">
         <v>0.0002201067592075392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002091653268208688</v>
+        <v>0.0002091653268208687</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001900290181983032</v>
+        <v>0.0001900290181983031</v>
       </c>
       <c r="H7" t="n">
         <v>0.0001734820481229223</v>
@@ -985,7 +985,7 @@
         <v>0.0001734820481229223</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001613994114275422</v>
+        <v>0.0001694693819989193</v>
       </c>
     </row>
   </sheetData>
